--- a/dataset_v1/task_sheet_answers/DemographicProfile/1_DemographicProfile/1_DemographicProfile_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/DemographicProfile/1_DemographicProfile/1_DemographicProfile_gt1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11520" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="76" r:id="rId3"/>
+    <pivotCache cacheId="76" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -70,32 +70,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="1" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="1" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -168,28 +168,28 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="hongxin li" refreshedDate="45055.66405763889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" r:id="rId1">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="8" minRefreshableVersion="3" recordCount="40" refreshedBy="hongxin li" refreshedDate="45055.66405763889" refreshedVersion="8" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D41" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
-    <cacheField name="Respondents" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="1" maxValue="40"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Respondents" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="40" minValue="1"/>
     </cacheField>
-    <cacheField name="Sex" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Sex" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="2">
         <s v="Female"/>
         <s v="Male"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Civil Status" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Civil Status" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="3">
         <s v="Single"/>
         <s v="Widow"/>
         <s v="Married"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Highest Educational Attainment" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Highest Educational Attainment" numFmtId="0" sqlType="0" uniqueList="1">
       <sharedItems count="3">
         <s v="Senior High School"/>
         <s v="Elementary"/>
@@ -446,100 +446,100 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable21" cacheId="76" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A2:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="76" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="8" dataCaption="Values" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable21" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="8" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="A2:B5"/>
   <pivotFields count="4">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
       <items count="3">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="default" sd="1"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="default"/>
       </items>
     </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
   <rowItems count="3">
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="0"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="1"/>
     </i>
-    <i t="grand" r="0" i="0">
+    <i i="0" r="0" t="grand">
       <x v="0"/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i i="0" r="0" t="data"/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Sex" fld="1" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField baseField="0" baseItem="0" fld="1" name="Count of Sex" showDataAs="normal" subtotal="count"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable22" cacheId="76" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A7:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="76" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="8" dataCaption="Values" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable22" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="8" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="A7:B11"/>
   <pivotFields count="4">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
       <items count="4">
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="default" sd="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="default"/>
       </items>
     </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
   <rowItems count="4">
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="0"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="1"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="2"/>
     </i>
-    <i t="grand" r="0" i="0">
+    <i i="0" r="0" t="grand">
       <x v="0"/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i i="0" r="0" t="data"/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Civil Status" fld="2" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField baseField="0" baseItem="0" fld="2" name="Count of Civil Status" showDataAs="normal" subtotal="count"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable23" cacheId="76" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A13:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="76" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="8" dataCaption="Values" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable23" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="8" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="A13:B17"/>
   <pivotFields count="4">
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField axis="axisRow" compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
       <items count="4">
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="default" sd="1"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="default"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -547,26 +547,26 @@
     <field x="3"/>
   </rowFields>
   <rowItems count="4">
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="0"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="1"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="2"/>
     </i>
-    <i t="grand" r="0" i="0">
+    <i i="0" r="0" t="grand">
       <x v="0"/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i i="0" r="0" t="data"/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of Highest Educational Attainment" fld="3" subtotal="count" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField baseField="0" baseItem="0" fld="3" name="Count of Highest Educational Attainment" showDataAs="normal" subtotal="count"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
 </pivotTableDefinition>
 </file>
 
@@ -879,8 +879,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="18.44140625" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="42.5546875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="18.44140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="42.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1040,7 +1040,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1058,9 +1058,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="12" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.33203125" customWidth="1" style="5" min="3" max="3"/>
-    <col width="28.6640625" customWidth="1" style="5" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="5" width="12"/>
+    <col customWidth="1" max="3" min="3" style="5" width="13.33203125"/>
+    <col customWidth="1" max="4" min="4" style="5" width="28.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1886,6 +1886,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>